--- a/biology/Médecine/Muscle_long_adducteur/Muscle_long_adducteur.xlsx
+++ b/biology/Médecine/Muscle_long_adducteur/Muscle_long_adducteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long adducteur (ou muscle moyen adducteur) est un muscle du membre inférieur. Il est situé dans la loge fémorale médiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long adducteur est un muscle triangulaire à sommet supérieur qui relie l'os coxal au fémur. Il se situe sur la face postérieure du muscle troisième adducteur. A proximité du fémur le muscle court adducteur s'interpose entre ces deux muscles.
 </t>
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle long adducteur se fixe sur la branche inférieure du pubis au dessus de l'origine des faisceaux moyen et supérieur du muscle troisième adducteur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle long adducteur se fixe sur la branche inférieure du pubis au dessus de l'origine des faisceaux moyen et supérieur du muscle troisième adducteur.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres musculaires descendent en éventail latéralement et légèrement en arrière sur la face dorsale du muscle troisième adducteur.
 </t>
@@ -604,9 +622,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle long adducteur s'insère sur le tiers médian de la ligne âpre[1] entre les lèvres médiale et latérale.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle long adducteur s'insère sur le tiers médian de la ligne âpre entre les lèvres médiale et latérale.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long adducteur est innervé par le rameau antérieur du nerf obturateur (parfois la division postérieure).
 </t>
@@ -666,7 +688,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long adducteur provoque l'adduction et la rotation latérale de l'articulation coxale.
 </t>
